--- a/schematic/bom.xlsx
+++ b/schematic/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">On hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-CH 20V 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/product-detail/en/central-semiconductor-corp/CMLDM7120G-TR/CMLDM7120GCT-ND/5324461</t>
   </si>
 </sst>
 </file>
@@ -234,15 +243,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="108.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.08"/>
@@ -403,6 +414,20 @@
       </c>
       <c r="D11" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
